--- a/data/trans_bre/P7A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P7A_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-12,72</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-13,08</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,34</t>
+          <t>10,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,56</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-45,8%</t>
+          <t>-5,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-46,44%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-41,05%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-43,72%</t>
+          <t>193,98%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>238,65%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-25,58%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,71; 0,99</t>
+          <t>-13,56; 17,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,71; 0,15</t>
+          <t>-12,21; 18,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,7; 3,05</t>
+          <t>-1,39; 24,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,6; 2,68</t>
+          <t>-0,31; 23,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-74,3; 8,37</t>
+          <t>-26,23; 10,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-74,95; 7,07</t>
+          <t>-68,01; 479,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-71,13; 23,62</t>
+          <t>-66,14; 513,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-73,15; 23,29</t>
+          <t>-56,88; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-47,97; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-77,41; 106,59</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>-10,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,7</t>
+          <t>-10,91</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>-9,8</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-28,47%</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-37,07%</t>
+          <t>-49,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-34,11%</t>
+          <t>-50,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>-52,37%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13,53%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-19,96%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,19; 5,92</t>
+          <t>-25,81; 4,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,09; 4,69</t>
+          <t>-27,75; 4,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 4,8</t>
+          <t>-24,04; 5,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 11,09</t>
+          <t>-11,45; 15,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-66,66; 70,14</t>
+          <t>-16,87; 10,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-70,41; 43,91</t>
+          <t>-84,3; 42,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,93; 57,69</t>
+          <t>-84,24; 44,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,86; 193,29</t>
+          <t>-85,68; 89,41</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-62,83; 394,99</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-77,5; 297,53</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>-9,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-8,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,17</t>
+          <t>-10,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>-9,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-31,81%</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-25,5%</t>
+          <t>-55,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-36,87%</t>
+          <t>-55,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-31,29%</t>
+          <t>-65,95%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-62,39%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-32,99%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 3,29</t>
+          <t>-19,84; 0,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 4,67</t>
+          <t>-18,44; 1,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 2,78</t>
+          <t>-22,49; -1,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 3,73</t>
+          <t>-21,42; -0,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-65,94; 51,74</t>
+          <t>-14,76; 9,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,68; 64,37</t>
+          <t>-83,09; 13,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-70,16; 35,91</t>
+          <t>-85,68; 22,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-68,39; 55,4</t>
+          <t>-89,87; -0,83</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-90,0; 10,72</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-80,32; 278,44</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,18%</t>
+          <t>38,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>59,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>15,57%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12,09%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>83,79%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 10,4</t>
+          <t>-6,77; 13,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 13,1</t>
+          <t>-3,96; 15,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 11,29</t>
+          <t>-7,59; 11,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 11,29</t>
+          <t>-8,72; 11,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,31; 92,77</t>
+          <t>-1,22; 21,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,64; 133,09</t>
+          <t>-41,32; 202,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 109,72</t>
+          <t>-28,93; 276,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,15; 110,85</t>
+          <t>-45,54; 169,75</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-47,46; 152,87</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-12,25; 384,08</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,35</t>
+          <t>22,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,12</t>
+          <t>25,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,04</t>
+          <t>26,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,69</t>
+          <t>23,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>47,3%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>56,69%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>56,97%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>49,73%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-3,69%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 23,13</t>
+          <t>4,71; 41,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 25,85</t>
+          <t>8,57; 45,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 27,26</t>
+          <t>7,7; 45,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 21,61</t>
+          <t>5,21; 41,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 46,11</t>
+          <t>-15,54; 5,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 53,71</t>
+          <t>8,93; 116,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 54,87</t>
+          <t>15,67; 133,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 42,45</t>
+          <t>13,55; 135,24</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9,44; 119,77</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-16,16; 6,62</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,87%</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-5,13%</t>
+          <t>-2,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-3,22%</t>
+          <t>-2,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-3,09%</t>
+          <t>-2,22%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-1,27%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-0,48%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 1,46</t>
+          <t>-11,03; 4,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 1,09</t>
+          <t>-10,55; 4,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 2,09</t>
+          <t>-10,71; 4,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 3,18</t>
+          <t>-7,98; 5,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 1,31</t>
+          <t>-6,04; 6,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 1,14</t>
+          <t>-11,06; 4,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 2,15</t>
+          <t>-10,74; 4,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 3,42</t>
+          <t>-10,82; 4,56</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-8,15; 6,16</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-6,15; 7,23</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-6,39%</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,45%</t>
+          <t>-6,55%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>-2,79%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>-1,97%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>10,56%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 3,84</t>
+          <t>-9,59; 5,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 4,4</t>
+          <t>-8,45; 5,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 6,66</t>
+          <t>-7,45; 6,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 10,4</t>
+          <t>-4,12; 9,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 11,86</t>
+          <t>-6,47; 11,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 14,84</t>
+          <t>-26,87; 19,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 22,3</t>
+          <t>-23,87; 21,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 36,2</t>
+          <t>-22,85; 25,88</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-13,65; 42,72</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-16,05; 36,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
